--- a/blog Milestone 1.xlsx
+++ b/blog Milestone 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pravallikachowdary/Documents/Sai Teja/Winter 2024/COEN 6312/Project/Library-Management-System-COEN-6312/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5436F22A-D163-CD48-B5B7-BE4854AA60EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C44EFCE-4410-184B-9D48-D17DB3C7C9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Team Members</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>We finalized the use case diagram. We included all the possible use cases for a Library Management System</t>
+  </si>
+  <si>
+    <t>We discussed on the report format and completed the report</t>
+  </si>
+  <si>
+    <t>completion of textual description of the system, including the objective of the system, potential users or customers, and a detailed list of features.</t>
+  </si>
+  <si>
+    <t>Report Writing</t>
+  </si>
+  <si>
+    <t>Report creation</t>
+  </si>
+  <si>
+    <t>Report Formatting</t>
+  </si>
+  <si>
+    <t>Report Editing</t>
   </si>
 </sst>
 </file>
@@ -977,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:S58"/>
+  <dimension ref="A3:S66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1290,7 @@
         <v>2</v>
       </c>
       <c r="M18" s="2">
-        <f t="shared" ref="M18:P35" si="0">C18*$I18</f>
+        <f t="shared" ref="M18:P43" si="0">C18*$I18</f>
         <v>2</v>
       </c>
       <c r="N18" s="2">
@@ -1314,7 +1332,7 @@
         <v>47</v>
       </c>
       <c r="L19" s="2">
-        <f t="shared" ref="L19:L26" si="1">B19*$I19</f>
+        <f t="shared" ref="L19:L27" si="1">B19*$I19</f>
         <v>0</v>
       </c>
       <c r="M19" s="2">
@@ -1334,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19:Q26" si="2">G19*$I19</f>
+        <f t="shared" ref="Q19:Q27" si="2">G19*$I19</f>
         <v>0</v>
       </c>
       <c r="R19" s="34"/>
@@ -1606,19 +1624,19 @@
         <v>3</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" ref="M25:M26" si="3">C25*$I25</f>
+        <f t="shared" ref="M25:M27" si="3">C25*$I25</f>
         <v>3</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" ref="N25:N26" si="4">D25*$I25</f>
+        <f t="shared" ref="N25:N27" si="4">D25*$I25</f>
         <v>3</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25:O26" si="5">E25*$I25</f>
+        <f t="shared" ref="O25:O27" si="5">E25*$I25</f>
         <v>3</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" ref="P25:P26" si="6">F25*$I25</f>
+        <f t="shared" ref="P25:P27" si="6">F25*$I25</f>
         <v>3</v>
       </c>
       <c r="Q25" s="2">
@@ -1627,51 +1645,39 @@
       </c>
       <c r="R25" s="34"/>
     </row>
-    <row r="26" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" ht="96" x14ac:dyDescent="0.2">
       <c r="A26" s="40">
-        <v>45333</v>
-      </c>
-      <c r="B26" s="41">
-        <v>1</v>
-      </c>
+        <v>45330</v>
+      </c>
+      <c r="B26" s="41"/>
       <c r="C26" s="41">
         <v>1</v>
       </c>
       <c r="D26" s="41">
         <v>1</v>
       </c>
-      <c r="E26" s="41">
-        <v>0</v>
-      </c>
-      <c r="F26" s="41">
-        <v>1</v>
-      </c>
-      <c r="G26" s="41">
-        <v>0</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>22</v>
-      </c>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="42">
-        <v>3</v>
-      </c>
-      <c r="J26" s="41" t="s">
-        <v>53</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="J26" s="41"/>
       <c r="K26" s="41" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O26" s="2">
         <f t="shared" si="5"/>
@@ -1679,7 +1685,7 @@
       </c>
       <c r="P26" s="2">
         <f t="shared" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" si="2"/>
@@ -1687,44 +1693,124 @@
       </c>
       <c r="R26" s="34"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A27" s="40"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
+    <row r="27" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="40">
+        <v>45333</v>
+      </c>
+      <c r="B27" s="41">
+        <v>1</v>
+      </c>
+      <c r="C27" s="41">
+        <v>1</v>
+      </c>
+      <c r="D27" s="41">
+        <v>1</v>
+      </c>
+      <c r="E27" s="41">
+        <v>0</v>
+      </c>
+      <c r="F27" s="41">
+        <v>1</v>
+      </c>
+      <c r="G27" s="41">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="42">
+        <v>3</v>
+      </c>
+      <c r="J27" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M27" s="2">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O27" s="2">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="R27" s="34"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
+    <row r="28" spans="1:18" ht="64" x14ac:dyDescent="0.2">
+      <c r="A28" s="40">
+        <v>45335</v>
+      </c>
+      <c r="B28" s="41">
+        <v>1</v>
+      </c>
+      <c r="C28" s="41">
+        <v>1</v>
+      </c>
+      <c r="D28" s="41">
+        <v>1</v>
+      </c>
+      <c r="E28" s="41">
+        <v>1</v>
+      </c>
+      <c r="F28" s="41">
+        <v>1</v>
+      </c>
+      <c r="G28" s="41">
+        <v>0</v>
+      </c>
+      <c r="H28" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="42">
+        <v>2</v>
+      </c>
+      <c r="J28" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="2">
+        <f>B28*$I28</f>
+        <v>2</v>
+      </c>
+      <c r="M28" s="2">
+        <f>C28*$I28</f>
+        <v>2</v>
+      </c>
+      <c r="N28" s="2">
+        <f>D28*$I28</f>
+        <v>2</v>
+      </c>
+      <c r="O28" s="2">
+        <f>E28*$I28</f>
+        <v>2</v>
+      </c>
+      <c r="P28" s="2">
+        <f>F28*$I28</f>
+        <v>2</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>G28*$I28</f>
+        <v>0</v>
+      </c>
       <c r="R28" s="34"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
@@ -1739,12 +1825,30 @@
       <c r="I29" s="42"/>
       <c r="J29" s="41"/>
       <c r="K29" s="41"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
+      <c r="L29" s="2">
+        <f t="shared" ref="L29:L37" si="7">B29*$I29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <f t="shared" ref="M29:M37" si="8">C29*$I29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <f t="shared" ref="N29:N37" si="9">D29*$I29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <f t="shared" ref="O29:O39" si="10">E29*$I29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ref="P29:P39" si="11">F29*$I29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" ref="Q29:Q39" si="12">G29*$I29</f>
+        <v>0</v>
+      </c>
       <c r="R29" s="34"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
@@ -1759,648 +1863,984 @@
       <c r="I30" s="42"/>
       <c r="J30" s="41"/>
       <c r="K30" s="41"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
+      <c r="L30" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="R30" s="34"/>
     </row>
-    <row r="31" spans="1:18" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="40">
-        <v>45335</v>
-      </c>
-      <c r="B31" s="41">
-        <v>1</v>
-      </c>
-      <c r="C31" s="41">
-        <v>1</v>
-      </c>
-      <c r="D31" s="41">
-        <v>1</v>
-      </c>
-      <c r="E31" s="41">
-        <v>1</v>
-      </c>
-      <c r="F31" s="41">
-        <v>1</v>
-      </c>
-      <c r="G31" s="41">
-        <v>0</v>
-      </c>
-      <c r="H31" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="42">
-        <v>2</v>
-      </c>
-      <c r="J31" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="K31" s="41" t="s">
-        <v>56</v>
-      </c>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
       <c r="L31" s="2">
-        <f t="shared" ref="L31" si="7">B31*$I31</f>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="M31" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="N31" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="O31" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="P31" s="2">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
       <c r="Q31" s="2">
-        <f t="shared" ref="Q31" si="8">G31*$I31</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R31" s="34"/>
     </row>
-    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7"/>
-      <c r="K32" s="29" t="s">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="34"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="34"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="34"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="40"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="34"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="40"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="34"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="40"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="2">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="34"/>
+    </row>
+    <row r="38" spans="1:18" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="40">
+        <v>45340</v>
+      </c>
+      <c r="B38" s="41">
+        <v>1</v>
+      </c>
+      <c r="C38" s="41">
+        <v>1</v>
+      </c>
+      <c r="D38" s="41">
+        <v>1</v>
+      </c>
+      <c r="E38" s="41">
+        <v>1</v>
+      </c>
+      <c r="F38" s="41">
+        <v>1</v>
+      </c>
+      <c r="G38" s="41">
+        <v>1</v>
+      </c>
+      <c r="H38" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="42">
+        <v>2</v>
+      </c>
+      <c r="J38" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="2">
+        <f>B38*$I38</f>
+        <v>2</v>
+      </c>
+      <c r="M38" s="2">
+        <f>C38*$I38</f>
+        <v>2</v>
+      </c>
+      <c r="N38" s="2">
+        <f>D38*$I38</f>
+        <v>2</v>
+      </c>
+      <c r="O38" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P38" s="2">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="Q38" s="2">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="R38" s="34"/>
+    </row>
+    <row r="39" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="40">
+        <v>45340</v>
+      </c>
+      <c r="B39" s="41">
+        <v>1</v>
+      </c>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41">
+        <v>1</v>
+      </c>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I39" s="42">
+        <v>2</v>
+      </c>
+      <c r="J39" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="L39" s="2">
+        <f>B39*$I39</f>
+        <v>2</v>
+      </c>
+      <c r="M39" s="2">
+        <f>C39*$I39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <f>D39*$I39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="P39" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="34"/>
+    </row>
+    <row r="40" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="K40" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L32">
-        <f t="shared" ref="L32:P32" si="9">SUM(L18:L31)</f>
-        <v>12</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="9"/>
+      <c r="L40">
+        <f>SUM(L18:L38)</f>
+        <v>14</v>
+      </c>
+      <c r="M40">
+        <f>SUM(M18:M38)</f>
+        <v>16.5</v>
+      </c>
+      <c r="N40">
+        <f>SUM(N18:N38)</f>
+        <v>16.5</v>
+      </c>
+      <c r="O40">
+        <f>SUM(O18:O38)</f>
+        <v>11</v>
+      </c>
+      <c r="P40">
+        <f>SUM(P18:P38)</f>
+        <v>14</v>
+      </c>
+      <c r="Q40">
+        <f>SUM(Q18:Q38)</f>
         <v>9</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="Q32">
-        <f>SUM(Q18:Q31)</f>
-        <v>7</v>
-      </c>
-      <c r="R32" s="34"/>
-    </row>
-    <row r="33" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7"/>
-      <c r="K33" s="15" t="s">
+      <c r="R40" s="34"/>
+    </row>
+    <row r="41" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="K41" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="34">
-        <f>SUM(L32:Q32)</f>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="P41" s="34"/>
+      <c r="Q41" s="37"/>
+      <c r="R41" s="34">
+        <f>SUM(L40:Q40)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="26"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="33"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="34"/>
-    </row>
-    <row r="35" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5">
-        <v>43490</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="28"/>
-      <c r="L35" s="30">
-        <f t="shared" ref="L35" si="10">B35*$I35</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="36">
-        <f>G35*$I35</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="34"/>
-    </row>
-    <row r="36" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="29"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="34"/>
-    </row>
-    <row r="37" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7"/>
-      <c r="H37" s="15"/>
-      <c r="K37" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37">
-        <f>SUM(L35:L36)</f>
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <f t="shared" ref="M37:P37" si="11">SUM(M35:M36)</f>
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="34">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="34">
-        <f>SUM(Q35:Q36)</f>
-        <v>0</v>
-      </c>
-      <c r="R37" s="34"/>
-    </row>
-    <row r="38" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7"/>
-      <c r="K38" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P38" s="34"/>
-      <c r="Q38" s="34"/>
-      <c r="R38" s="34">
-        <f>SUM(L37:Q37)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="7"/>
-      <c r="P39" s="34"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="34"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="L40" s="26"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="4"/>
-      <c r="P40" s="33"/>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="34"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="5"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="30">
-        <f t="shared" ref="L41" si="12">B41*$I41</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="35">
-        <f t="shared" ref="M41" si="13">C41*$I41</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="35">
-        <f t="shared" ref="N41" si="14">D41*$I41</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="35">
-        <f t="shared" ref="O41" si="15">E41*$I41</f>
-        <v>0</v>
-      </c>
-      <c r="P41" s="36">
-        <f t="shared" ref="P41" si="16">F41*$I41</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="36">
-        <f>G41*$I41</f>
-        <v>0</v>
-      </c>
-      <c r="R41" s="34"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="29"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="33"/>
       <c r="Q42" s="29"/>
       <c r="R42" s="34"/>
     </row>
-    <row r="43" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7"/>
-      <c r="H43" s="15"/>
-      <c r="K43" s="29" t="s">
+    <row r="43" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>43490</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="30">
+        <f t="shared" ref="L43" si="13">B43*$I43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="36">
+        <f>G43*$I43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="34"/>
+    </row>
+    <row r="44" spans="1:18" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="34"/>
+    </row>
+    <row r="45" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="H45" s="15"/>
+      <c r="K45" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L43">
-        <f>SUM(L41:L42)</f>
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <f t="shared" ref="M43" si="17">SUM(M41:M42)</f>
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ref="N43" si="18">SUM(N41:N42)</f>
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <f t="shared" ref="O43" si="19">SUM(O41:O42)</f>
-        <v>0</v>
-      </c>
-      <c r="P43" s="34">
-        <f t="shared" ref="P43" si="20">SUM(P41:P42)</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="34">
-        <f>SUM(Q41:Q42)</f>
-        <v>0</v>
-      </c>
-      <c r="R43" s="34"/>
-    </row>
-    <row r="44" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7"/>
-      <c r="K44" s="15" t="s">
+      <c r="L45">
+        <f>SUM(L43:L44)</f>
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45:P45" si="14">SUM(M43:M44)</f>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P45" s="34">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="34">
+        <f>SUM(Q43:Q44)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="34"/>
+    </row>
+    <row r="46" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="K46" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34">
-        <f>SUM(L43:Q43)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="7"/>
-      <c r="K45" s="15"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="34"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="L46" s="26"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="29"/>
-      <c r="R46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
+      <c r="R46" s="34">
+        <f>SUM(L45:Q45)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="5"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="28"/>
-      <c r="L47" s="30">
-        <f t="shared" ref="L47" si="21">B47*$I47</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="35">
-        <f t="shared" ref="M47" si="22">C47*$I47</f>
-        <v>0</v>
-      </c>
-      <c r="N47" s="35">
-        <f t="shared" ref="N47" si="23">D47*$I47</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="35">
-        <f t="shared" ref="O47" si="24">E47*$I47</f>
-        <v>0</v>
-      </c>
-      <c r="P47" s="36">
-        <f t="shared" ref="P47" si="25">F47*$I47</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="36">
-        <f>G47*$I47</f>
-        <v>0</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="37"/>
       <c r="R47" s="34"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="5"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="15"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="15"/>
-      <c r="O48" s="15"/>
-      <c r="P48" s="29"/>
+      <c r="A48" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L48" s="26"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="33"/>
       <c r="Q48" s="29"/>
       <c r="R48" s="34"/>
     </row>
-    <row r="49" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="7"/>
-      <c r="H49" s="15"/>
-      <c r="K49" s="29" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="30">
+        <f t="shared" ref="L49" si="15">B49*$I49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="35">
+        <f t="shared" ref="M49" si="16">C49*$I49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="35">
+        <f t="shared" ref="N49" si="17">D49*$I49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="35">
+        <f t="shared" ref="O49" si="18">E49*$I49</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="36">
+        <f t="shared" ref="P49" si="19">F49*$I49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="36">
+        <f>G49*$I49</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="34"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="34"/>
+    </row>
+    <row r="51" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="7"/>
+      <c r="H51" s="15"/>
+      <c r="K51" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L49">
-        <f>SUM(L47:L48)</f>
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <f t="shared" ref="M49" si="26">SUM(M47:M48)</f>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <f t="shared" ref="N49" si="27">SUM(N47:N48)</f>
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" ref="O49" si="28">SUM(O47:O48)</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="34">
-        <f t="shared" ref="P49" si="29">SUM(P47:P48)</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="34">
-        <f>SUM(Q47:Q48)</f>
-        <v>0</v>
-      </c>
-      <c r="R49" s="34"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="7"/>
-      <c r="K50" t="s">
-        <v>28</v>
-      </c>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="34">
-        <f>SUM(L49:P49)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L51" s="26"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="29"/>
+      <c r="L51">
+        <f>SUM(L49:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51" si="20">SUM(M49:M50)</f>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <f t="shared" ref="N51" si="21">SUM(N49:N50)</f>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" ref="O51" si="22">SUM(O49:O50)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="34">
+        <f t="shared" ref="P51" si="23">SUM(P49:P50)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="34">
+        <f>SUM(Q49:Q50)</f>
+        <v>0</v>
+      </c>
       <c r="R51" s="34"/>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="28"/>
-      <c r="L52" s="30">
-        <f t="shared" ref="L52" si="30">B52*$I52</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="35">
-        <f t="shared" ref="M52" si="31">C52*$I52</f>
-        <v>0</v>
-      </c>
-      <c r="N52" s="35">
-        <f t="shared" ref="N52" si="32">D52*$I52</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="35">
-        <f t="shared" ref="O52" si="33">E52*$I52</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="36">
-        <f t="shared" ref="P52" si="34">F52*$I52</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="36">
-        <f>G52*$I52</f>
-        <v>0</v>
-      </c>
-      <c r="R52" s="34"/>
+    <row r="52" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="7"/>
+      <c r="K52" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P52" s="34"/>
+      <c r="Q52" s="34"/>
+      <c r="R52" s="34">
+        <f>SUM(L51:Q51)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="15"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="15"/>
-      <c r="P53" s="29"/>
-      <c r="Q53" s="29"/>
+      <c r="A53" s="7"/>
+      <c r="K53" s="15"/>
+      <c r="P53" s="34"/>
+      <c r="Q53" s="37"/>
       <c r="R53" s="34"/>
     </row>
-    <row r="54" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="7"/>
-      <c r="H54" s="15"/>
-      <c r="K54" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="L54">
-        <f>SUM(L52:L53)</f>
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <f t="shared" ref="M54" si="35">SUM(M52:M53)</f>
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <f t="shared" ref="N54" si="36">SUM(N52:N53)</f>
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <f t="shared" ref="O54" si="37">SUM(O52:O53)</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="34">
-        <f t="shared" ref="P54" si="38">SUM(P52:P53)</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="34">
-        <f>SUM(Q52:Q53)</f>
-        <v>0</v>
-      </c>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L54" s="26"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="29"/>
       <c r="R54" s="34"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A55" s="7"/>
-      <c r="K55" t="s">
-        <v>30</v>
-      </c>
-      <c r="P55" s="34"/>
-      <c r="Q55" s="34"/>
-      <c r="R55" s="34">
-        <f>SUM(L54:P54)</f>
-        <v>0</v>
-      </c>
+      <c r="A55" s="5"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="30">
+        <f t="shared" ref="L55" si="24">B55*$I55</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="35">
+        <f t="shared" ref="M55" si="25">C55*$I55</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="35">
+        <f t="shared" ref="N55" si="26">D55*$I55</f>
+        <v>0</v>
+      </c>
+      <c r="O55" s="35">
+        <f t="shared" ref="O55" si="27">E55*$I55</f>
+        <v>0</v>
+      </c>
+      <c r="P55" s="36">
+        <f t="shared" ref="P55" si="28">F55*$I55</f>
+        <v>0</v>
+      </c>
+      <c r="Q55" s="36">
+        <f>G55*$I55</f>
+        <v>0</v>
+      </c>
+      <c r="R55" s="34"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A56" s="7"/>
-      <c r="P56" s="34"/>
-      <c r="Q56" s="34"/>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="15"/>
+      <c r="O56" s="15"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
       <c r="R56" s="34"/>
     </row>
     <row r="57" spans="1:18" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
-      <c r="K57" s="31" t="s">
+      <c r="H57" s="15"/>
+      <c r="K57" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L57">
+        <f>SUM(L55:L56)</f>
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57" si="29">SUM(M55:M56)</f>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <f t="shared" ref="N57" si="30">SUM(N55:N56)</f>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" ref="O57" si="31">SUM(O55:O56)</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="34">
+        <f t="shared" ref="P57" si="32">SUM(P55:P56)</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="34">
+        <f>SUM(Q55:Q56)</f>
+        <v>0</v>
+      </c>
+      <c r="R57" s="34"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="7"/>
+      <c r="K58" t="s">
+        <v>28</v>
+      </c>
+      <c r="P58" s="34"/>
+      <c r="Q58" s="37"/>
+      <c r="R58" s="34">
+        <f>SUM(L57:P57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L59" s="26"/>
+      <c r="M59" s="4"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="34"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="30">
+        <f t="shared" ref="L60" si="33">B60*$I60</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="35">
+        <f t="shared" ref="M60" si="34">C60*$I60</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="35">
+        <f t="shared" ref="N60" si="35">D60*$I60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="35">
+        <f t="shared" ref="O60" si="36">E60*$I60</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="36">
+        <f t="shared" ref="P60" si="37">F60*$I60</f>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="36">
+        <f>G60*$I60</f>
+        <v>0</v>
+      </c>
+      <c r="R60" s="34"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="15"/>
+      <c r="M61" s="15"/>
+      <c r="N61" s="15"/>
+      <c r="O61" s="15"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="34"/>
+    </row>
+    <row r="62" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="7"/>
+      <c r="H62" s="15"/>
+      <c r="K62" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="L62">
+        <f>SUM(L60:L61)</f>
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <f t="shared" ref="M62" si="38">SUM(M60:M61)</f>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <f t="shared" ref="N62" si="39">SUM(N60:N61)</f>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" ref="O62" si="40">SUM(O60:O61)</f>
+        <v>0</v>
+      </c>
+      <c r="P62" s="34">
+        <f t="shared" ref="P62" si="41">SUM(P60:P61)</f>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="34">
+        <f>SUM(Q60:Q61)</f>
+        <v>0</v>
+      </c>
+      <c r="R62" s="34"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A63" s="7"/>
+      <c r="K63" t="s">
+        <v>30</v>
+      </c>
+      <c r="P63" s="34"/>
+      <c r="Q63" s="34"/>
+      <c r="R63" s="34">
+        <f>SUM(L62:P62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A64" s="7"/>
+      <c r="P64" s="34"/>
+      <c r="Q64" s="34"/>
+      <c r="R64" s="34"/>
+    </row>
+    <row r="65" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="K65" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="L57">
-        <f>L32+L37+L43+L49+L54</f>
-        <v>12</v>
-      </c>
-      <c r="M57">
-        <f t="shared" ref="M57:P57" si="39">M32+M37+M43+M49+M54</f>
-        <v>13</v>
-      </c>
-      <c r="N57">
-        <f t="shared" si="39"/>
-        <v>13</v>
-      </c>
-      <c r="O57">
-        <f t="shared" si="39"/>
+      <c r="L65">
+        <f>L40+L45+L51+L57+L62</f>
+        <v>14</v>
+      </c>
+      <c r="M65">
+        <f t="shared" ref="M65:P65" si="42">M40+M45+M51+M57+M62</f>
+        <v>16.5</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="42"/>
+        <v>16.5</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="42"/>
+        <v>11</v>
+      </c>
+      <c r="P65" s="34">
+        <f t="shared" si="42"/>
+        <v>14</v>
+      </c>
+      <c r="Q65" s="34">
+        <f>Q40+Q45+Q51+Q57+Q62</f>
         <v>9</v>
       </c>
-      <c r="P57" s="34">
-        <f t="shared" si="39"/>
-        <v>12</v>
-      </c>
-      <c r="Q57" s="34">
-        <f>Q32+Q37+Q43+Q49+Q54</f>
-        <v>7</v>
-      </c>
-      <c r="R57" s="34"/>
-    </row>
-    <row r="58" spans="1:18" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="8"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="32" t="s">
+      <c r="R65" s="34"/>
+    </row>
+    <row r="66" spans="1:18" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="9"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="37"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="37">
-        <f>SUM(L57:P57)</f>
-        <v>59</v>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="37"/>
+      <c r="R66" s="37">
+        <f>SUM(L65:P65)</f>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
